--- a/exposan/bwaise/data/raw/hdpe_liner_CFs.xlsx
+++ b/exposan/bwaise/data/raw/hdpe_liner_CFs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
   <si>
     <t>-</t>
   </si>
@@ -28,6 +28,15 @@
     <t>ReCiPe Endpoint (I,A) (obsolete)</t>
   </si>
   <si>
+    <t>ReCiPe Midpoint (E) V1.13</t>
+  </si>
+  <si>
+    <t>ReCiPe Midpoint (H) V1.13</t>
+  </si>
+  <si>
+    <t>ReCiPe Midpoint (I) V1.13</t>
+  </si>
+  <si>
     <t>TRACI (obsolete)</t>
   </si>
   <si>
@@ -43,61 +52,151 @@
     <t>total</t>
   </si>
   <si>
+    <t>agricultural land occupation</t>
+  </si>
+  <si>
+    <t>climate change</t>
+  </si>
+  <si>
+    <t>fossil depletion</t>
+  </si>
+  <si>
+    <t>freshwater ecotoxicity</t>
+  </si>
+  <si>
+    <t>freshwater eutrophication</t>
+  </si>
+  <si>
+    <t>human toxicity</t>
+  </si>
+  <si>
+    <t>ionising radiation</t>
+  </si>
+  <si>
+    <t>marine ecotoxicity</t>
+  </si>
+  <si>
+    <t>marine eutrophication</t>
+  </si>
+  <si>
+    <t>metal depletion</t>
+  </si>
+  <si>
+    <t>natural land transformation</t>
+  </si>
+  <si>
+    <t>ozone depletion</t>
+  </si>
+  <si>
+    <t>particulate matter formation</t>
+  </si>
+  <si>
+    <t>photochemical oxidant formation</t>
+  </si>
+  <si>
+    <t>terrestrial acidification</t>
+  </si>
+  <si>
+    <t>terrestrial ecotoxicity</t>
+  </si>
+  <si>
+    <t>urban land occupation</t>
+  </si>
+  <si>
+    <t>water depletion</t>
+  </si>
+  <si>
     <t>environmental impact</t>
   </si>
   <si>
     <t>activity functional unit</t>
   </si>
   <si>
-    <t>agricultural land occupation</t>
-  </si>
-  <si>
     <t>climate change, ecosystems</t>
   </si>
   <si>
-    <t>freshwater ecotoxicity</t>
-  </si>
-  <si>
-    <t>freshwater eutrophication</t>
-  </si>
-  <si>
-    <t>marine ecotoxicity</t>
-  </si>
-  <si>
-    <t>natural land transformation</t>
-  </si>
-  <si>
-    <t>terrestrial acidification</t>
-  </si>
-  <si>
-    <t>terrestrial ecotoxicity</t>
-  </si>
-  <si>
-    <t>urban land occupation</t>
-  </si>
-  <si>
     <t>climate change, human health</t>
   </si>
   <si>
-    <t>human toxicity</t>
-  </si>
-  <si>
-    <t>ionising radiation</t>
-  </si>
-  <si>
-    <t>ozone depletion</t>
-  </si>
-  <si>
-    <t>particulate matter formation</t>
-  </si>
-  <si>
-    <t>photochemical oxidant formation</t>
-  </si>
-  <si>
-    <t>fossil depletion</t>
-  </si>
-  <si>
-    <t>metal depletion</t>
+    <t>ALOP</t>
+  </si>
+  <si>
+    <t>GWP500</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>FETPinf</t>
+  </si>
+  <si>
+    <t>FEP</t>
+  </si>
+  <si>
+    <t>HTPinf</t>
+  </si>
+  <si>
+    <t>IRP_HE</t>
+  </si>
+  <si>
+    <t>METPinf</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>MDP</t>
+  </si>
+  <si>
+    <t>NLTP</t>
+  </si>
+  <si>
+    <t>ODPinf</t>
+  </si>
+  <si>
+    <t>PMFP</t>
+  </si>
+  <si>
+    <t>POFP</t>
+  </si>
+  <si>
+    <t>TAP500</t>
+  </si>
+  <si>
+    <t>TETPinf</t>
+  </si>
+  <si>
+    <t>ULOP</t>
+  </si>
+  <si>
+    <t>WDP</t>
+  </si>
+  <si>
+    <t>GWP100</t>
+  </si>
+  <si>
+    <t>TAP100</t>
+  </si>
+  <si>
+    <t>GWP20</t>
+  </si>
+  <si>
+    <t>FETP100</t>
+  </si>
+  <si>
+    <t>HTP100</t>
+  </si>
+  <si>
+    <t>IRP_I</t>
+  </si>
+  <si>
+    <t>METP100</t>
+  </si>
+  <si>
+    <t>TAP20</t>
+  </si>
+  <si>
+    <t>TETP100</t>
   </si>
   <si>
     <t>acidification</t>
@@ -148,6 +247,51 @@
     <t>points</t>
   </si>
   <si>
+    <t>square meter-year</t>
+  </si>
+  <si>
+    <t>kg CO2-Eq</t>
+  </si>
+  <si>
+    <t>kg oil-Eq</t>
+  </si>
+  <si>
+    <t>kg 1,4-DC.</t>
+  </si>
+  <si>
+    <t>kg P-Eq</t>
+  </si>
+  <si>
+    <t>kg U235-Eq</t>
+  </si>
+  <si>
+    <t>kg N-Eq</t>
+  </si>
+  <si>
+    <t>kg Fe-Eq</t>
+  </si>
+  <si>
+    <t>square meter</t>
+  </si>
+  <si>
+    <t>kg CFC-11.</t>
+  </si>
+  <si>
+    <t>kg PM10-Eq</t>
+  </si>
+  <si>
+    <t>kg NMVOC-.</t>
+  </si>
+  <si>
+    <t>kg SO2-Eq</t>
+  </si>
+  <si>
+    <t>m3 water-.</t>
+  </si>
+  <si>
+    <t>kg 1,4-DB.</t>
+  </si>
+  <si>
     <t>moles of .</t>
   </si>
   <si>
@@ -155,12 +299,6 @@
   </si>
   <si>
     <t>kg N</t>
-  </si>
-  <si>
-    <t>kg CO2-Eq</t>
-  </si>
-  <si>
-    <t>kg CFC-11.</t>
   </si>
   <si>
     <t>kg NOx-Eq</t>
@@ -530,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:DX10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:128">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -621,14 +759,74 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:128">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -640,7 +838,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -649,15 +847,15 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -669,7 +867,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -678,15 +876,15 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -698,7 +896,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -707,70 +905,232 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:128">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>23</v>
@@ -782,58 +1142,58 @@
         <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>23</v>
@@ -845,58 +1205,58 @@
         <v>25</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>23</v>
@@ -908,278 +1268,602 @@
         <v>25</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BR3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DT3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>35</v>
+      <c r="DU3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:128">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AO5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AP5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AQ5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AR5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AS5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AT5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AU5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AV5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AW5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AY5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AZ5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BA5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BB5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BC5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BD5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BE5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BF5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BG5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BH5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BI5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BJ5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BK5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BL5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BM5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="BN5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="BO5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="BP5" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="BQ5" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="BR5" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="BS5" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="BT5" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="BU5" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BV5" t="s">
-        <v>52</v>
+        <v>83</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>82</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>89</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>77</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>78</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>95</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:128">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0.0007346873026094799</v>
@@ -1371,39 +2055,201 @@
         <v>0.370575655926444</v>
       </c>
       <c r="BN6">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="BO6">
+        <v>2.020379402496647</v>
+      </c>
+      <c r="BP6">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="BQ6">
+        <v>0.03144219272244984</v>
+      </c>
+      <c r="BR6">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="BS6">
+        <v>18.18053147603046</v>
+      </c>
+      <c r="BT6">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="BU6">
+        <v>21.57044396733449</v>
+      </c>
+      <c r="BV6">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="BW6">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="BX6">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="BY6">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="BZ6">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CA6">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CB6">
+        <v>0.007727126123123791</v>
+      </c>
+      <c r="CC6">
+        <v>0.000827525368362778</v>
+      </c>
+      <c r="CD6">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CE6">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CF6">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CG6">
+        <v>2.24553019409373</v>
+      </c>
+      <c r="CH6">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="CI6">
+        <v>0.03134989276426815</v>
+      </c>
+      <c r="CJ6">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="CK6">
+        <v>0.3611847368361584</v>
+      </c>
+      <c r="CL6">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="CM6">
+        <v>0.02760551119894093</v>
+      </c>
+      <c r="CN6">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="CO6">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="CP6">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="CQ6">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="CR6">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CS6">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CT6">
+        <v>0.007072299521122808</v>
+      </c>
+      <c r="CU6">
+        <v>8.292652605385132E-05</v>
+      </c>
+      <c r="CV6">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CW6">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CX6">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CY6">
+        <v>2.842741421418047</v>
+      </c>
+      <c r="CZ6">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="DA6">
+        <v>0.03134973725487624</v>
+      </c>
+      <c r="DB6">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="DC6">
+        <v>0.01852470920806819</v>
+      </c>
+      <c r="DD6">
+        <v>0.03393591722762904</v>
+      </c>
+      <c r="DE6">
+        <v>0.01559634923339876</v>
+      </c>
+      <c r="DF6">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="DG6">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="DH6">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="DI6">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="DJ6">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="DK6">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="DL6">
+        <v>0.006755092031809109</v>
+      </c>
+      <c r="DM6">
+        <v>8.286989464247348E-05</v>
+      </c>
+      <c r="DN6">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="DO6">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="DP6">
         <v>0.4134595287125605</v>
       </c>
-      <c r="BO6">
+      <c r="DQ6">
         <v>0.6535083465374687</v>
       </c>
-      <c r="BP6">
+      <c r="DR6">
         <v>0.0003024428269032398</v>
       </c>
-      <c r="BQ6">
+      <c r="DS6">
         <v>2.223440129452575</v>
       </c>
-      <c r="BR6">
+      <c r="DT6">
         <v>3.849786491976596E-08</v>
       </c>
-      <c r="BS6">
+      <c r="DU6">
         <v>0.004866734460123555</v>
       </c>
-      <c r="BT6">
+      <c r="DV6">
         <v>0.001794034336673442</v>
       </c>
-      <c r="BU6">
+      <c r="DW6">
         <v>5.60198741976582</v>
       </c>
-      <c r="BV6">
+      <c r="DX6">
         <v>0.002044932112892598</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:128">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>0.0007346873026094799</v>
@@ -1595,39 +2441,201 @@
         <v>0.370575655926444</v>
       </c>
       <c r="BN7">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="BO7">
+        <v>2.020379402496647</v>
+      </c>
+      <c r="BP7">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="BQ7">
+        <v>0.03144219272244984</v>
+      </c>
+      <c r="BR7">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="BS7">
+        <v>18.18053147603046</v>
+      </c>
+      <c r="BT7">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="BU7">
+        <v>21.57044396733449</v>
+      </c>
+      <c r="BV7">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="BW7">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="BX7">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="BY7">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="BZ7">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CA7">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CB7">
+        <v>0.007727126123123791</v>
+      </c>
+      <c r="CC7">
+        <v>0.000827525368362778</v>
+      </c>
+      <c r="CD7">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CE7">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CF7">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CG7">
+        <v>2.24553019409373</v>
+      </c>
+      <c r="CH7">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="CI7">
+        <v>0.03134989276426815</v>
+      </c>
+      <c r="CJ7">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="CK7">
+        <v>0.3611847368361584</v>
+      </c>
+      <c r="CL7">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="CM7">
+        <v>0.02760551119894093</v>
+      </c>
+      <c r="CN7">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="CO7">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="CP7">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="CQ7">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="CR7">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CS7">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CT7">
+        <v>0.007072299521122808</v>
+      </c>
+      <c r="CU7">
+        <v>8.292652605385132E-05</v>
+      </c>
+      <c r="CV7">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CW7">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CX7">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CY7">
+        <v>2.842741421418047</v>
+      </c>
+      <c r="CZ7">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="DA7">
+        <v>0.03134973725487624</v>
+      </c>
+      <c r="DB7">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="DC7">
+        <v>0.01852470920806819</v>
+      </c>
+      <c r="DD7">
+        <v>0.03393591722762904</v>
+      </c>
+      <c r="DE7">
+        <v>0.01559634923339876</v>
+      </c>
+      <c r="DF7">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="DG7">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="DH7">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="DI7">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="DJ7">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="DK7">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="DL7">
+        <v>0.006755092031809109</v>
+      </c>
+      <c r="DM7">
+        <v>8.286989464247348E-05</v>
+      </c>
+      <c r="DN7">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="DO7">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="DP7">
         <v>0.4134595287125605</v>
       </c>
-      <c r="BO7">
+      <c r="DQ7">
         <v>0.6535083465374687</v>
       </c>
-      <c r="BP7">
+      <c r="DR7">
         <v>0.0003024428269032398</v>
       </c>
-      <c r="BQ7">
+      <c r="DS7">
         <v>2.223440129452575</v>
       </c>
-      <c r="BR7">
+      <c r="DT7">
         <v>3.849786491976596E-08</v>
       </c>
-      <c r="BS7">
+      <c r="DU7">
         <v>0.004866734460123555</v>
       </c>
-      <c r="BT7">
+      <c r="DV7">
         <v>0.001794034336673442</v>
       </c>
-      <c r="BU7">
+      <c r="DW7">
         <v>5.60198741976582</v>
       </c>
-      <c r="BV7">
+      <c r="DX7">
         <v>0.002044932112892598</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:128">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>0.0007346873026094799</v>
@@ -1819,39 +2827,201 @@
         <v>0.370575655926444</v>
       </c>
       <c r="BN8">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="BO8">
+        <v>2.020379402496647</v>
+      </c>
+      <c r="BP8">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="BQ8">
+        <v>0.03144219272244984</v>
+      </c>
+      <c r="BR8">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="BS8">
+        <v>18.18053147603046</v>
+      </c>
+      <c r="BT8">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="BU8">
+        <v>21.57044396733449</v>
+      </c>
+      <c r="BV8">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="BW8">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="BX8">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="BY8">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="BZ8">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CA8">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CB8">
+        <v>0.007727126123123791</v>
+      </c>
+      <c r="CC8">
+        <v>0.000827525368362778</v>
+      </c>
+      <c r="CD8">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CE8">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CF8">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CG8">
+        <v>2.24553019409373</v>
+      </c>
+      <c r="CH8">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="CI8">
+        <v>0.03134989276426815</v>
+      </c>
+      <c r="CJ8">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="CK8">
+        <v>0.3611847368361584</v>
+      </c>
+      <c r="CL8">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="CM8">
+        <v>0.02760551119894093</v>
+      </c>
+      <c r="CN8">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="CO8">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="CP8">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="CQ8">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="CR8">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CS8">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CT8">
+        <v>0.007072299521122808</v>
+      </c>
+      <c r="CU8">
+        <v>8.292652605385132E-05</v>
+      </c>
+      <c r="CV8">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CW8">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CX8">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CY8">
+        <v>2.842741421418047</v>
+      </c>
+      <c r="CZ8">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="DA8">
+        <v>0.03134973725487624</v>
+      </c>
+      <c r="DB8">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="DC8">
+        <v>0.01852470920806819</v>
+      </c>
+      <c r="DD8">
+        <v>0.03393591722762904</v>
+      </c>
+      <c r="DE8">
+        <v>0.01559634923339876</v>
+      </c>
+      <c r="DF8">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="DG8">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="DH8">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="DI8">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="DJ8">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="DK8">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="DL8">
+        <v>0.006755092031809109</v>
+      </c>
+      <c r="DM8">
+        <v>8.286989464247348E-05</v>
+      </c>
+      <c r="DN8">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="DO8">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="DP8">
         <v>0.4134595287125605</v>
       </c>
-      <c r="BO8">
+      <c r="DQ8">
         <v>0.6535083465374687</v>
       </c>
-      <c r="BP8">
+      <c r="DR8">
         <v>0.0003024428269032398</v>
       </c>
-      <c r="BQ8">
+      <c r="DS8">
         <v>2.223440129452575</v>
       </c>
-      <c r="BR8">
+      <c r="DT8">
         <v>3.849786491976596E-08</v>
       </c>
-      <c r="BS8">
+      <c r="DU8">
         <v>0.004866734460123555</v>
       </c>
-      <c r="BT8">
+      <c r="DV8">
         <v>0.001794034336673442</v>
       </c>
-      <c r="BU8">
+      <c r="DW8">
         <v>5.60198741976582</v>
       </c>
-      <c r="BV8">
+      <c r="DX8">
         <v>0.002044932112892598</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:128">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0.0007346873026094799</v>
@@ -2043,39 +3213,201 @@
         <v>0.370575655926444</v>
       </c>
       <c r="BN9">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="BO9">
+        <v>2.020379402496647</v>
+      </c>
+      <c r="BP9">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="BQ9">
+        <v>0.03144219272244984</v>
+      </c>
+      <c r="BR9">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="BS9">
+        <v>18.18053147603046</v>
+      </c>
+      <c r="BT9">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="BU9">
+        <v>21.57044396733449</v>
+      </c>
+      <c r="BV9">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="BW9">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="BX9">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="BY9">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="BZ9">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CA9">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CB9">
+        <v>0.007727126123123791</v>
+      </c>
+      <c r="CC9">
+        <v>0.000827525368362778</v>
+      </c>
+      <c r="CD9">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CE9">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CF9">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CG9">
+        <v>2.24553019409373</v>
+      </c>
+      <c r="CH9">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="CI9">
+        <v>0.03134989276426815</v>
+      </c>
+      <c r="CJ9">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="CK9">
+        <v>0.3611847368361584</v>
+      </c>
+      <c r="CL9">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="CM9">
+        <v>0.02760551119894093</v>
+      </c>
+      <c r="CN9">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="CO9">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="CP9">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="CQ9">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="CR9">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CS9">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CT9">
+        <v>0.007072299521122808</v>
+      </c>
+      <c r="CU9">
+        <v>8.292652605385132E-05</v>
+      </c>
+      <c r="CV9">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CW9">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CX9">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CY9">
+        <v>2.842741421418047</v>
+      </c>
+      <c r="CZ9">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="DA9">
+        <v>0.03134973725487624</v>
+      </c>
+      <c r="DB9">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="DC9">
+        <v>0.01852470920806819</v>
+      </c>
+      <c r="DD9">
+        <v>0.03393591722762904</v>
+      </c>
+      <c r="DE9">
+        <v>0.01559634923339876</v>
+      </c>
+      <c r="DF9">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="DG9">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="DH9">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="DI9">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="DJ9">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="DK9">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="DL9">
+        <v>0.006755092031809109</v>
+      </c>
+      <c r="DM9">
+        <v>8.286989464247348E-05</v>
+      </c>
+      <c r="DN9">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="DO9">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="DP9">
         <v>0.4134595287125605</v>
       </c>
-      <c r="BO9">
+      <c r="DQ9">
         <v>0.6535083465374687</v>
       </c>
-      <c r="BP9">
+      <c r="DR9">
         <v>0.0003024428269032398</v>
       </c>
-      <c r="BQ9">
+      <c r="DS9">
         <v>2.223440129452575</v>
       </c>
-      <c r="BR9">
+      <c r="DT9">
         <v>3.849786491976596E-08</v>
       </c>
-      <c r="BS9">
+      <c r="DU9">
         <v>0.004866734460123555</v>
       </c>
-      <c r="BT9">
+      <c r="DV9">
         <v>0.001794034336673442</v>
       </c>
-      <c r="BU9">
+      <c r="DW9">
         <v>5.60198741976582</v>
       </c>
-      <c r="BV9">
+      <c r="DX9">
         <v>0.002044932112892598</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:128">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0.0007346873026094799</v>
@@ -2267,39 +3599,204 @@
         <v>0.370575655926444</v>
       </c>
       <c r="BN10">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="BO10">
+        <v>2.020379402496647</v>
+      </c>
+      <c r="BP10">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="BQ10">
+        <v>0.03144219272244984</v>
+      </c>
+      <c r="BR10">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="BS10">
+        <v>18.18053147603046</v>
+      </c>
+      <c r="BT10">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="BU10">
+        <v>21.57044396733449</v>
+      </c>
+      <c r="BV10">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="BW10">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="BX10">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="BY10">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="BZ10">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CA10">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CB10">
+        <v>0.007727126123123791</v>
+      </c>
+      <c r="CC10">
+        <v>0.000827525368362778</v>
+      </c>
+      <c r="CD10">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CE10">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CF10">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CG10">
+        <v>2.24553019409373</v>
+      </c>
+      <c r="CH10">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="CI10">
+        <v>0.03134989276426815</v>
+      </c>
+      <c r="CJ10">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="CK10">
+        <v>0.3611847368361584</v>
+      </c>
+      <c r="CL10">
+        <v>0.05685198699194536</v>
+      </c>
+      <c r="CM10">
+        <v>0.02760551119894093</v>
+      </c>
+      <c r="CN10">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="CO10">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="CP10">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="CQ10">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="CR10">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="CS10">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="CT10">
+        <v>0.007072299521122808</v>
+      </c>
+      <c r="CU10">
+        <v>8.292652605385132E-05</v>
+      </c>
+      <c r="CV10">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="CW10">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="CX10">
+        <v>0.03762202399423651</v>
+      </c>
+      <c r="CY10">
+        <v>2.842741421418047</v>
+      </c>
+      <c r="CZ10">
+        <v>1.888741348600165</v>
+      </c>
+      <c r="DA10">
+        <v>0.03134973725487624</v>
+      </c>
+      <c r="DB10">
+        <v>0.0004361603955748563</v>
+      </c>
+      <c r="DC10">
+        <v>0.01852470920806819</v>
+      </c>
+      <c r="DD10">
+        <v>0.03393591722762904</v>
+      </c>
+      <c r="DE10">
+        <v>0.01559634923339876</v>
+      </c>
+      <c r="DF10">
+        <v>0.0003041393608189925</v>
+      </c>
+      <c r="DG10">
+        <v>0.0466766264759533</v>
+      </c>
+      <c r="DH10">
+        <v>-6.015036495276655E-05</v>
+      </c>
+      <c r="DI10">
+        <v>3.850027254003106E-08</v>
+      </c>
+      <c r="DJ10">
+        <v>0.002995137928568479</v>
+      </c>
+      <c r="DK10">
+        <v>0.007967661678526321</v>
+      </c>
+      <c r="DL10">
+        <v>0.006755092031809109</v>
+      </c>
+      <c r="DM10">
+        <v>8.286989464247348E-05</v>
+      </c>
+      <c r="DN10">
+        <v>0.04853709204878116</v>
+      </c>
+      <c r="DO10">
+        <v>0.02205804363203398</v>
+      </c>
+      <c r="DP10">
         <v>0.4134595287125605</v>
       </c>
-      <c r="BO10">
+      <c r="DQ10">
         <v>0.6535083465374687</v>
       </c>
-      <c r="BP10">
+      <c r="DR10">
         <v>0.0003024428269032398</v>
       </c>
-      <c r="BQ10">
+      <c r="DS10">
         <v>2.223440129452575</v>
       </c>
-      <c r="BR10">
+      <c r="DT10">
         <v>3.849786491976596E-08</v>
       </c>
-      <c r="BS10">
+      <c r="DU10">
         <v>0.004866734460123555</v>
       </c>
-      <c r="BT10">
+      <c r="DV10">
         <v>0.001794034336673442</v>
       </c>
-      <c r="BU10">
+      <c r="DW10">
         <v>5.60198741976582</v>
       </c>
-      <c r="BV10">
+      <c r="DX10">
         <v>0.002044932112892598</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="X1:AR1"/>
     <mergeCell ref="AS1:BM1"/>
-    <mergeCell ref="BN1:BV1"/>
+    <mergeCell ref="BN1:CE1"/>
+    <mergeCell ref="CF1:CW1"/>
+    <mergeCell ref="CX1:DO1"/>
+    <mergeCell ref="DP1:DX1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M2:S2"/>
     <mergeCell ref="T2:V2"/>
@@ -2309,8 +3806,8 @@
     <mergeCell ref="AS2:BB2"/>
     <mergeCell ref="BC2:BI2"/>
     <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="DP2:DU2"/>
+    <mergeCell ref="DV2:DX2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
